--- a/prog1/analysis2.xlsx
+++ b/prog1/analysis2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22240" yWindow="4480" windowWidth="27520" windowHeight="21700" tabRatio="500"/>
+    <workbookView xWindow="23340" yWindow="700" windowWidth="27520" windowHeight="25480" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="d2" sheetId="3" r:id="rId3"/>
     <sheet name="d3" sheetId="4" r:id="rId4"/>
     <sheet name="d4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$61</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>average</t>
   </si>
@@ -42,12 +43,21 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>d = 1</t>
+  </si>
+  <si>
+    <t>d=2</t>
+  </si>
+  <si>
+    <t>d=3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +81,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +106,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -99,19 +116,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -135,7 +181,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.182815716747623"/>
+          <c:y val="0.0752895638449573"/>
+          <c:w val="0.742114167134844"/>
+          <c:h val="0.691834479701687"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -146,7 +202,21 @@
             <a:ln w="47625">
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'d1'!$B$2:$B$16</c:f>
@@ -265,45 +335,132 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102699752"/>
-        <c:axId val="2103311528"/>
+        <c:axId val="-2099939256"/>
+        <c:axId val="-2099806872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102699752"/>
+        <c:axId val="-2099939256"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
+          <c:max val="262145.0"/>
+          <c:min val="16.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numpoints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103311528"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2099806872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103311528"/>
+        <c:axId val="-2099806872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MST size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0185643473901013"/>
+              <c:y val="0.321061423241811"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102699752"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2099939256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial Narrow"/>
+          <a:cs typeface="Arial Narrow"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -631,7 +788,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.167370309030605"/>
+          <c:y val="0.0752895638449573"/>
+          <c:w val="0.758156815370753"/>
+          <c:h val="0.691834479701687"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -646,7 +813,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
@@ -657,56 +824,80 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0595180146781432"/>
+                  <c:y val="-0.021718232901309"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'d2'!$B$2:$B$16</c:f>
+              <c:f>'d2'!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.65685424949238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.31370849898476</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>22.62741699796952</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>45.25483399593904</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>90.50966799187808</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>128.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>181.0193359837562</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>256.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>362.0386719675124</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16384.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65536.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>131072.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>262144.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,14 +966,319 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111214248"/>
-        <c:axId val="2111330264"/>
+        <c:axId val="2132465176"/>
+        <c:axId val="2110605688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111214248"/>
+        <c:axId val="2132465176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numpoints</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>1/2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110605688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2110605688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MST size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0185643473901013"/>
+              <c:y val="0.321061423241811"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2132465176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial Narrow"/>
+          <a:cs typeface="Arial Narrow"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.167370309030605"/>
+          <c:y val="0.0752895638449573"/>
+          <c:w val="0.758156815370753"/>
+          <c:h val="0.691834479701687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.378311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.085041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.206955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.568094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.568623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.360828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.033607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.155296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.317596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267.307922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>422.261292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>669.246887</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1058.600586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1677.853882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2658.322998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2136728136"/>
+        <c:axId val="2136556808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2136728136"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
+          <c:max val="262145.0"/>
           <c:min val="16.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -810,12 +1306,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111330264"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136556808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111330264"/>
+        <c:axId val="2136556808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +1344,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0185643473901013"/>
+              <c:y val="0.321061423241811"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -850,7 +1363,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2111214248"/>
+        <c:crossAx val="2136728136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -874,7 +1387,970 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100">
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial Narrow"/>
+          <a:cs typeface="Arial Narrow"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.179450846002309"/>
+          <c:y val="0.0752895638449573"/>
+          <c:w val="0.746076282415714"/>
+          <c:h val="0.691834479701687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0625781390454092"/>
+                  <c:y val="-0.0112119954223648"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3'!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.349604207872797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.07936839915899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.39841683149119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.31747359663593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.5936673259648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161.2698943865437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255.9999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>406.3746693038587</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>645.0795775461748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1023.999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1625.498677215435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2580.3183101847</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4095.999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.378311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.085041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.206955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.568094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.568623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.360828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.033607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.155296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.317596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267.307922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>422.261292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>669.246887</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1058.600586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1677.853882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2658.322998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2076513176"/>
+        <c:axId val="2112796216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2076513176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numpoints</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2/3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112796216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2112796216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MST size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0185643473901013"/>
+              <c:y val="0.321061423241811"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2076513176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial Narrow"/>
+          <a:cs typeface="Arial Narrow"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.182815716747623"/>
+          <c:y val="0.0752895638449573"/>
+          <c:w val="0.742114167134844"/>
+          <c:h val="0.691834479701687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.151603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.218206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.06065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.570501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.116905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.19201700000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.956268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216.4198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361.102539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>602.558472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1008.706238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1688.575806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2827.478027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4739.936035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7952.416504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2111271176"/>
+        <c:axId val="2111298424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2111271176"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="262145.0"/>
+          <c:min val="16.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numpoints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111298424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2111298424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MST size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0185643473901013"/>
+              <c:y val="0.321061423241811"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2111271176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial Narrow"/>
+          <a:cs typeface="Arial Narrow"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.179450846002309"/>
+          <c:y val="0.0752895638449573"/>
+          <c:w val="0.746076282415714"/>
+          <c:h val="0.691834479701687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0625781390454092"/>
+                  <c:y val="-0.0112119954223648"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4'!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.45434264405943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.62741699796951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.05462768008707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.6347411524755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.0193359837561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>304.4370214406967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>511.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>861.0779292198033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1448.154687870049</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2435.496171525572</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4095.999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6888.623433758421</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11585.2375029604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.151603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.218206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.06065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.570501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.116905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.19201700000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.956268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216.4198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361.102539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>602.558472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1008.706238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1688.575806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2827.478027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4739.936035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7952.416504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2073519064"/>
+        <c:axId val="-2077328152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2073519064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numpoints</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>3/4</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2077328152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2077328152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MST size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0185643473901013"/>
+              <c:y val="0.321061423241811"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2073519064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
           <a:latin typeface="Arial Narrow"/>
           <a:cs typeface="Arial Narrow"/>
         </a:defRPr>
@@ -894,21 +2370,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>491067</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -961,18 +2439,156 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>651933</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131232</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93132</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1314,10 +2930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1336,7 +2953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2">
         <v>1.1925460000000001</v>
       </c>
@@ -1350,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3">
         <v>1.155977</v>
       </c>
@@ -1364,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4">
         <v>1.1923889999999999</v>
       </c>
@@ -1378,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5">
         <v>1.1694960000000001</v>
       </c>
@@ -1392,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6">
         <v>1.1911499999999999</v>
       </c>
@@ -1406,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7">
         <v>1.1952100000000001</v>
       </c>
@@ -1420,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8">
         <v>1.2019880000000001</v>
       </c>
@@ -1434,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9">
         <v>2.636253</v>
       </c>
@@ -1448,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10">
         <v>3.8256399999999999</v>
       </c>
@@ -1462,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11">
         <v>5.397856</v>
       </c>
@@ -1476,7 +3093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12">
         <v>7.6686800000000002</v>
       </c>
@@ -1490,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13">
         <v>10.690264000000001</v>
       </c>
@@ -1504,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14">
         <v>15.047226</v>
       </c>
@@ -1518,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15">
         <v>21.120224</v>
       </c>
@@ -1532,7 +3149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16">
         <v>4.3783110000000001</v>
       </c>
@@ -1546,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17">
         <v>7.0850410000000004</v>
       </c>
@@ -1560,7 +3177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18">
         <v>11.206955000000001</v>
       </c>
@@ -1574,7 +3191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19">
         <v>17.568093999999999</v>
       </c>
@@ -1588,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20">
         <v>27.568622999999999</v>
       </c>
@@ -1602,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21">
         <v>43.360827999999998</v>
       </c>
@@ -1616,7 +3233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22">
         <v>68.033607000000003</v>
       </c>
@@ -1728,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30">
         <v>1.196151</v>
       </c>
@@ -1742,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31">
         <v>1.2021599999999999</v>
       </c>
@@ -1756,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32">
         <v>1.2043060000000001</v>
       </c>
@@ -1770,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33">
         <v>1.202383</v>
       </c>
@@ -1784,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34">
         <v>29.682455000000001</v>
       </c>
@@ -1798,7 +3415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35">
         <v>41.781821999999998</v>
       </c>
@@ -1812,7 +3429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36">
         <v>59.009307999999997</v>
       </c>
@@ -1826,7 +3443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37">
         <v>83.204727000000005</v>
       </c>
@@ -1840,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38">
         <v>107.15529600000001</v>
       </c>
@@ -1854,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39">
         <v>169.31759600000001</v>
       </c>
@@ -1868,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40">
         <v>267.30792200000002</v>
       </c>
@@ -1882,7 +3499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41">
         <v>422.26129200000003</v>
       </c>
@@ -1952,7 +3569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46">
         <v>1.206367</v>
       </c>
@@ -1966,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47">
         <v>1.199395</v>
       </c>
@@ -1980,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48">
         <v>1.201541</v>
       </c>
@@ -1994,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49">
         <v>1.203478</v>
       </c>
@@ -2008,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50">
         <v>117.39083100000001</v>
       </c>
@@ -2022,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51">
         <v>165.95584099999999</v>
       </c>
@@ -2036,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52">
         <v>234.61682099999999</v>
       </c>
@@ -2050,7 +3667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53">
         <v>331.60406499999999</v>
       </c>
@@ -2064,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54">
         <v>669.24688700000002</v>
       </c>
@@ -2078,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55">
         <v>1058.600586</v>
       </c>
@@ -2092,7 +3709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56">
         <v>1677.8538820000001</v>
       </c>
@@ -2106,7 +3723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57">
         <v>2658.3229980000001</v>
       </c>
@@ -2177,6 +3794,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D61">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2191,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A16 E1:E16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2471,6 +4095,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2484,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2779,6 +4404,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2790,13 +4416,305 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>4.3783110000000001</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>B2^(2/3)</f>
+        <v>6.3496042078727974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>7.0850410000000004</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">B3^(2/3)</f>
+        <v>10.079368399158986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>11.206955000000001</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>15.999999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>17.568093999999999</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>25.398416831491186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>27.568622999999999</v>
+      </c>
+      <c r="B6">
+        <v>256</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>40.317473596635928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>43.360827999999998</v>
+      </c>
+      <c r="B7">
+        <v>512</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>63.999999999999979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>68.033607000000003</v>
+      </c>
+      <c r="B8">
+        <v>1024</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>101.59366732596476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>107.15529600000001</v>
+      </c>
+      <c r="B9">
+        <v>2048</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>161.26989438654368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>169.31759600000001</v>
+      </c>
+      <c r="B10">
+        <v>4096</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>255.99999999999972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>267.30792200000002</v>
+      </c>
+      <c r="B11">
+        <v>8192</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>406.37466930385875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>422.26129200000003</v>
+      </c>
+      <c r="B12">
+        <v>16384</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>645.07957754617485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>669.24688700000002</v>
+      </c>
+      <c r="B13">
+        <v>32768</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1023.9999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1058.600586</v>
+      </c>
+      <c r="B14">
+        <v>65536</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1625.4986772154355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1677.8538820000001</v>
+      </c>
+      <c r="B15">
+        <v>131072</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2580.3183101846998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2658.3229980000001</v>
+      </c>
+      <c r="B16">
+        <v>262144</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4095.9999999999968</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2807,14 +4725,686 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>6.1516029999999997</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>B2^(3/4)</f>
+        <v>7.9999999999999982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>10.218206</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">B3^(3/4)</f>
+        <v>13.454342644059432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>17.060649999999999</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>22.627416997969508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>28.570501</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>38.054627680087073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>47.116905000000003</v>
+      </c>
+      <c r="B6">
+        <v>256</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>63.999999999999979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>78.192017000000007</v>
+      </c>
+      <c r="B7">
+        <v>512</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>107.63474115247547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>129.95626799999999</v>
+      </c>
+      <c r="B8">
+        <v>1024</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>181.01933598375612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>216.41980000000001</v>
+      </c>
+      <c r="B9">
+        <v>2048</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>304.4370214406967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>361.10253899999998</v>
+      </c>
+      <c r="B10">
+        <v>4096</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>511.99999999999949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>602.55847200000005</v>
+      </c>
+      <c r="B11">
+        <v>8192</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>861.07792921980331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1008.706238</v>
+      </c>
+      <c r="B12">
+        <v>16384</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1448.1546878700494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1688.5758060000001</v>
+      </c>
+      <c r="B13">
+        <v>32768</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2435.4961715255718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2827.4780270000001</v>
+      </c>
+      <c r="B14">
+        <v>65536</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4095.9999999999968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>4739.9360349999997</v>
+      </c>
+      <c r="B15">
+        <v>131072</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6888.6234337584219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>7952.4165039999998</v>
+      </c>
+      <c r="B16">
+        <v>262144</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>11585.237502960397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.1925460000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.636253</v>
+      </c>
+      <c r="D2">
+        <v>4.3783110000000001</v>
+      </c>
+      <c r="E2">
+        <v>6.1516029999999997</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.155977</v>
+      </c>
+      <c r="C3">
+        <v>3.8256399999999999</v>
+      </c>
+      <c r="D3">
+        <v>7.0850410000000004</v>
+      </c>
+      <c r="E3">
+        <v>10.218206</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.1923889999999999</v>
+      </c>
+      <c r="C4">
+        <v>5.397856</v>
+      </c>
+      <c r="D4">
+        <v>11.206955000000001</v>
+      </c>
+      <c r="E4">
+        <v>17.060649999999999</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.1694960000000001</v>
+      </c>
+      <c r="C5">
+        <v>7.6686800000000002</v>
+      </c>
+      <c r="D5">
+        <v>17.568093999999999</v>
+      </c>
+      <c r="E5">
+        <v>28.570501</v>
+      </c>
+      <c r="F5">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>256</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.1911499999999999</v>
+      </c>
+      <c r="C6">
+        <v>10.690264000000001</v>
+      </c>
+      <c r="D6">
+        <v>27.568622999999999</v>
+      </c>
+      <c r="E6">
+        <v>47.116905000000003</v>
+      </c>
+      <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>512</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.1952100000000001</v>
+      </c>
+      <c r="C7">
+        <v>15.047226</v>
+      </c>
+      <c r="D7">
+        <v>43.360827999999998</v>
+      </c>
+      <c r="E7">
+        <v>78.192017000000007</v>
+      </c>
+      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1024</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.2019880000000001</v>
+      </c>
+      <c r="C8">
+        <v>21.120224</v>
+      </c>
+      <c r="D8">
+        <v>68.033607000000003</v>
+      </c>
+      <c r="E8">
+        <v>129.95626799999999</v>
+      </c>
+      <c r="F8">
+        <v>1024</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2048</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.196151</v>
+      </c>
+      <c r="C9">
+        <v>29.682455000000001</v>
+      </c>
+      <c r="D9">
+        <v>107.15529600000001</v>
+      </c>
+      <c r="E9">
+        <v>216.41980000000001</v>
+      </c>
+      <c r="F9">
+        <v>2048</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>4096</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.2021599999999999</v>
+      </c>
+      <c r="C10">
+        <v>41.781821999999998</v>
+      </c>
+      <c r="D10">
+        <v>169.31759600000001</v>
+      </c>
+      <c r="E10">
+        <v>361.10253899999998</v>
+      </c>
+      <c r="F10">
+        <v>4096</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8192</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.2043060000000001</v>
+      </c>
+      <c r="C11">
+        <v>59.009307999999997</v>
+      </c>
+      <c r="D11">
+        <v>267.30792200000002</v>
+      </c>
+      <c r="E11">
+        <v>602.55847200000005</v>
+      </c>
+      <c r="F11">
+        <v>8192</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>16384</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.202383</v>
+      </c>
+      <c r="C12">
+        <v>83.204727000000005</v>
+      </c>
+      <c r="D12">
+        <v>422.26129200000003</v>
+      </c>
+      <c r="E12">
+        <v>1008.706238</v>
+      </c>
+      <c r="F12">
+        <v>16384</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>32768</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.206367</v>
+      </c>
+      <c r="C13">
+        <v>117.39083100000001</v>
+      </c>
+      <c r="D13">
+        <v>669.24688700000002</v>
+      </c>
+      <c r="E13">
+        <v>1688.5758060000001</v>
+      </c>
+      <c r="F13">
+        <v>32768</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>65536</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.199395</v>
+      </c>
+      <c r="C14">
+        <v>165.95584099999999</v>
+      </c>
+      <c r="D14">
+        <v>1058.600586</v>
+      </c>
+      <c r="E14">
+        <v>2827.4780270000001</v>
+      </c>
+      <c r="F14">
+        <v>65536</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>131072</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.201541</v>
+      </c>
+      <c r="C15">
+        <v>234.61682099999999</v>
+      </c>
+      <c r="D15">
+        <v>1677.8538820000001</v>
+      </c>
+      <c r="E15">
+        <v>4739.9360349999997</v>
+      </c>
+      <c r="F15">
+        <v>131072</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>262144</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.203478</v>
+      </c>
+      <c r="C16">
+        <v>331.60406499999999</v>
+      </c>
+      <c r="D16">
+        <v>2658.3229980000001</v>
+      </c>
+      <c r="E16">
+        <v>7952.4165039999998</v>
+      </c>
+      <c r="F16">
+        <v>262144</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/prog1/analysis2.xlsx
+++ b/prog1/analysis2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23340" yWindow="700" windowWidth="27520" windowHeight="25480" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="23340" yWindow="700" windowWidth="27520" windowHeight="25480" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>average</t>
   </si>
@@ -52,12 +52,18 @@
   <si>
     <t>d=3</t>
   </si>
+  <si>
+    <t>d=4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,11 +88,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,7 +115,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -130,12 +139,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -147,6 +166,10 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -158,6 +181,10 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -335,11 +362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099939256"/>
-        <c:axId val="-2099806872"/>
+        <c:axId val="2135444728"/>
+        <c:axId val="-2079172792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099939256"/>
+        <c:axId val="2135444728"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -364,7 +391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -381,12 +407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099806872"/>
+        <c:crossAx val="-2079172792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099806872"/>
+        <c:axId val="-2079172792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -429,7 +455,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2099939256"/>
+        <c:crossAx val="2135444728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -639,11 +665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2098271560"/>
-        <c:axId val="2109531848"/>
+        <c:axId val="2053938936"/>
+        <c:axId val="2132993784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2098271560"/>
+        <c:axId val="2053938936"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -685,12 +711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109531848"/>
+        <c:crossAx val="2132993784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109531848"/>
+        <c:axId val="2132993784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +758,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2098271560"/>
+        <c:crossAx val="2053938936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -966,11 +992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132465176"/>
-        <c:axId val="2110605688"/>
+        <c:axId val="-2103012600"/>
+        <c:axId val="-2103055880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132465176"/>
+        <c:axId val="-2103012600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,12 +1039,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110605688"/>
+        <c:crossAx val="-2103055880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110605688"/>
+        <c:axId val="-2103055880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1086,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2132465176"/>
+        <c:crossAx val="-2103012600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1270,11 +1296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2136728136"/>
-        <c:axId val="2136556808"/>
+        <c:axId val="-2100924840"/>
+        <c:axId val="2136979432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2136728136"/>
+        <c:axId val="-2100924840"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1316,12 +1342,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136556808"/>
+        <c:crossAx val="2136979432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2136556808"/>
+        <c:axId val="2136979432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1389,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2136728136"/>
+        <c:crossAx val="-2100924840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1597,11 +1623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2076513176"/>
-        <c:axId val="2112796216"/>
+        <c:axId val="2102638088"/>
+        <c:axId val="2136071720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2076513176"/>
+        <c:axId val="2102638088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,12 +1670,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112796216"/>
+        <c:crossAx val="2136071720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112796216"/>
+        <c:axId val="2136071720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1717,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2076513176"/>
+        <c:crossAx val="2102638088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1901,11 +1927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111271176"/>
-        <c:axId val="2111298424"/>
+        <c:axId val="2102868984"/>
+        <c:axId val="-2100450152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111271176"/>
+        <c:axId val="2102868984"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1947,12 +1973,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111298424"/>
+        <c:crossAx val="-2100450152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111298424"/>
+        <c:axId val="-2100450152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000.0"/>
@@ -1995,7 +2021,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2111271176"/>
+        <c:crossAx val="2102868984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000.0"/>
@@ -2230,11 +2256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073519064"/>
-        <c:axId val="-2077328152"/>
+        <c:axId val="-2100353304"/>
+        <c:axId val="2136712792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073519064"/>
+        <c:axId val="-2100353304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,12 +2303,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077328152"/>
+        <c:crossAx val="2136712792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077328152"/>
+        <c:axId val="2136712792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000.0"/>
@@ -2325,7 +2351,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2073519064"/>
+        <c:crossAx val="-2100353304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000.0"/>
@@ -4727,7 +4753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
@@ -5034,378 +5060,337 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>16</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1.1925460000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2.636253</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4.3783110000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>6.1516029999999997</v>
       </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="F2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>32</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1.155977</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3.8256399999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>7.0850410000000004</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>10.218206</v>
       </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="F3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>64</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1.1923889999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>5.397856</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>11.206955000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>17.060649999999999</v>
       </c>
-      <c r="F4">
-        <v>64</v>
-      </c>
-      <c r="G4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="F4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>128</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1.1694960000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>7.6686800000000002</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>17.568093999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>28.570501</v>
       </c>
-      <c r="F5">
-        <v>128</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="F5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>256</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1.1911499999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>10.690264000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>27.568622999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>47.116905000000003</v>
       </c>
-      <c r="F6">
-        <v>256</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>512</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1.1952100000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>15.047226</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>43.360827999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>78.192017000000007</v>
       </c>
-      <c r="F7">
-        <v>512</v>
-      </c>
-      <c r="G7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="F7" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>1024</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>1.2019880000000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>21.120224</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>68.033607000000003</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>129.95626799999999</v>
       </c>
-      <c r="F8">
-        <v>1024</v>
-      </c>
-      <c r="G8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="F8" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>2048</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>1.196151</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>29.682455000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>107.15529600000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>216.41980000000001</v>
       </c>
-      <c r="F9">
-        <v>2048</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>4096</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>1.2021599999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>41.781821999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>169.31759600000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>361.10253899999998</v>
       </c>
-      <c r="F10">
-        <v>4096</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>8192</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>1.2043060000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>59.009307999999997</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>267.30792200000002</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>602.55847200000005</v>
       </c>
-      <c r="F11">
-        <v>8192</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>16384</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>1.202383</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>83.204727000000005</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>422.26129200000003</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1008.706238</v>
       </c>
-      <c r="F12">
-        <v>16384</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>32768</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>1.206367</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>117.39083100000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>669.24688700000002</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1688.5758060000001</v>
       </c>
-      <c r="F13">
-        <v>32768</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
         <v>65536</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>1.199395</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>165.95584099999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>1058.600586</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>2827.4780270000001</v>
       </c>
-      <c r="F14">
-        <v>65536</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>131072</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>1.201541</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>234.61682099999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1677.8538820000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>4739.9360349999997</v>
       </c>
-      <c r="F15">
-        <v>131072</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>262144</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>1.203478</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>331.60406499999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>2658.3229980000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>7952.4165039999998</v>
       </c>
-      <c r="F16">
-        <v>262144</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/prog1/analysis2.xlsx
+++ b/prog1/analysis2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23340" yWindow="700" windowWidth="27520" windowHeight="25480" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="13620" yWindow="520" windowWidth="25620" windowHeight="25480" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="d3" sheetId="4" r:id="rId4"/>
     <sheet name="d4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$61</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>average</t>
   </si>
@@ -60,8 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -115,7 +117,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -147,14 +149,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -170,6 +176,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -185,6 +192,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -244,6 +252,11 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'d1'!$B$2:$B$16</c:f>
@@ -362,11 +375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135444728"/>
-        <c:axId val="-2079172792"/>
+        <c:axId val="2114775496"/>
+        <c:axId val="2114783064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135444728"/>
+        <c:axId val="2114775496"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -391,6 +404,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -407,12 +421,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079172792"/>
+        <c:crossAx val="2114783064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2079172792"/>
+        <c:axId val="2114783064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -455,7 +469,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2135444728"/>
+        <c:crossAx val="2114775496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -665,11 +679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2053938936"/>
-        <c:axId val="2132993784"/>
+        <c:axId val="2133781544"/>
+        <c:axId val="-2145182440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2053938936"/>
+        <c:axId val="2133781544"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -694,7 +708,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -711,12 +724,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132993784"/>
+        <c:crossAx val="-2145182440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132993784"/>
+        <c:axId val="-2145182440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +771,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2053938936"/>
+        <c:crossAx val="2133781544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -992,11 +1005,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2103012600"/>
-        <c:axId val="-2103055880"/>
+        <c:axId val="2118959032"/>
+        <c:axId val="2118929544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2103012600"/>
+        <c:axId val="2118959032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1039,12 +1051,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103055880"/>
+        <c:crossAx val="2118929544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2103055880"/>
+        <c:axId val="2118929544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1098,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2103012600"/>
+        <c:crossAx val="2118959032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1296,11 +1308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2100924840"/>
-        <c:axId val="2136979432"/>
+        <c:axId val="2115469080"/>
+        <c:axId val="2120494392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2100924840"/>
+        <c:axId val="2115469080"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1325,7 +1337,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1342,12 +1353,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136979432"/>
+        <c:crossAx val="2120494392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2136979432"/>
+        <c:axId val="2120494392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1400,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2100924840"/>
+        <c:crossAx val="2115469080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1623,11 +1634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102638088"/>
-        <c:axId val="2136071720"/>
+        <c:axId val="2115971784"/>
+        <c:axId val="2115977416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102638088"/>
+        <c:axId val="2115971784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1664,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1670,12 +1680,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136071720"/>
+        <c:crossAx val="2115977416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2136071720"/>
+        <c:axId val="2115977416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1727,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2102638088"/>
+        <c:crossAx val="2115971784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1927,11 +1937,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102868984"/>
-        <c:axId val="-2100450152"/>
+        <c:axId val="2115938744"/>
+        <c:axId val="-2145094648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102868984"/>
+        <c:axId val="2115938744"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1973,12 +1983,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100450152"/>
+        <c:crossAx val="-2145094648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2100450152"/>
+        <c:axId val="-2145094648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000.0"/>
@@ -2021,7 +2031,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2102868984"/>
+        <c:crossAx val="2115938744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000.0"/>
@@ -2256,11 +2266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2100353304"/>
-        <c:axId val="2136712792"/>
+        <c:axId val="2115909048"/>
+        <c:axId val="2115890696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2100353304"/>
+        <c:axId val="2115909048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,12 +2313,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136712792"/>
+        <c:crossAx val="2115890696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2136712792"/>
+        <c:axId val="2115890696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000.0"/>
@@ -2351,7 +2361,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2100353304"/>
+        <c:crossAx val="2115909048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000.0"/>
@@ -2377,6 +2387,640 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="900">
+          <a:latin typeface="Arial Narrow"/>
+          <a:cs typeface="Arial Narrow"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.434054323077607"/>
+          <c:y val="0.0159010578585657"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.195966604345757"/>
+          <c:y val="0.137491564300998"/>
+          <c:w val="0.717301420424487"/>
+          <c:h val="0.678325355676615"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="93000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0526151927276005"/>
+                  <c:y val="0.00561795642609326"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.656</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>36.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>311.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5008.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2140585944"/>
+        <c:axId val="2130744120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2140585944"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numpoints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130744120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2130744120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>running time for 10 trials (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0110159161194368"/>
+              <c:y val="0.103553282936443"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2140585944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial Narrow"/>
+          <a:cs typeface="Arial Narrow"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.434054323077607"/>
+          <c:y val="0.0159010578585657"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.195966604345757"/>
+          <c:y val="0.137491564300998"/>
+          <c:w val="0.717301420424487"/>
+          <c:h val="0.678325355676615"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="93000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0503878781408316"/>
+                  <c:y val="-0.0155834540519944"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.652</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>363.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1466.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5881.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2119016424"/>
+        <c:axId val="2109395048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2119016424"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numpoints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2109395048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2109395048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>running time for 10 trials (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0110159161194368"/>
+              <c:y val="0.103553282936443"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2119016424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
           <a:latin typeface="Arial Narrow"/>
           <a:cs typeface="Arial Narrow"/>
         </a:defRPr>
@@ -2611,6 +3255,73 @@
       <xdr:colOff>804333</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>93132</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>512236</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>639231</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3842,7 +4553,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4753,7 +5464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
@@ -5063,7 +5774,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5397,4 +6108,139 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.441</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.3979999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8.6560000000000006</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.6520000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B6" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>32768</v>
+      </c>
+      <c r="B7" s="4">
+        <v>187.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>65536</v>
+      </c>
+      <c r="B8" s="4">
+        <v>311.8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>363.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>131072</v>
+      </c>
+      <c r="B9" s="3">
+        <f>(120+5.6)*10</f>
+        <v>1256</v>
+      </c>
+      <c r="C9" s="2">
+        <f>(120+26.6)*10</f>
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>262144</v>
+      </c>
+      <c r="B10" s="3">
+        <f>(8*60+20.8)*10</f>
+        <v>5008</v>
+      </c>
+      <c r="C10" s="2">
+        <f>(9*60+48.1)*10</f>
+        <v>5881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/prog1/analysis2.xlsx
+++ b/prog1/analysis2.xlsx
@@ -6115,7 +6115,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
